--- a/app/Licenciatura_em_comunicacao_rural.xlsx
+++ b/app/Licenciatura_em_comunicacao_rural.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Amelia Timica Banze</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>Margarida De C. L.antÓnio</t>
   </si>
   <si>
-    <t>Distrito de Vilanculos</t>
-  </si>
-  <si>
     <t>110101823992J</t>
   </si>
   <si>
@@ -263,9 +257,6 @@
     <t>Catica Ibraimo Bacar</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -293,9 +284,6 @@
     <t>Adelia Salvador Ribeiro</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>110100317486S</t>
   </si>
   <si>
@@ -320,9 +308,6 @@
     <t xml:space="preserve">Maria Emilia Hassane </t>
   </si>
   <si>
-    <t>Distrito de Massinga</t>
-  </si>
-  <si>
     <t>+25882</t>
   </si>
   <si>
@@ -479,9 +464,6 @@
     <t>Lucinda Antonio Nhampossa</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>080100392148B</t>
   </si>
   <si>
@@ -506,9 +488,6 @@
     <t>CecÍlia Fernando Narujala</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>040100064331Q</t>
   </si>
   <si>
@@ -533,9 +512,6 @@
     <t>TÁnia Dionisia JuliÃo Sef</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>081002624605P</t>
   </si>
   <si>
@@ -584,9 +560,6 @@
     <t>Maria Olinda Singano</t>
   </si>
   <si>
-    <t>Distrito de Cahora-Bassa</t>
-  </si>
-  <si>
     <t>110101806765N</t>
   </si>
   <si>
@@ -611,9 +584,6 @@
     <t>Rita Lazaro Macheque</t>
   </si>
   <si>
-    <t>Distrito de Inhassoro</t>
-  </si>
-  <si>
     <t>080601305509N</t>
   </si>
   <si>
@@ -635,9 +605,6 @@
     <t>Saulina Z. Chissuane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110501520887B</t>
   </si>
   <si>
@@ -728,9 +695,6 @@
     <t>Helena Antonio Mundlhovo</t>
   </si>
   <si>
-    <t>Distrito de Chókwé</t>
-  </si>
-  <si>
     <t>090601674299M</t>
   </si>
   <si>
@@ -855,9 +819,6 @@
   </si>
   <si>
     <t>Josefa Jose Caetano</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamaxaquene</t>
   </si>
   <si>
     <t>100100653571A</t>
@@ -2165,7 +2126,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2181,7 +2142,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2197,7 +2158,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2213,7 +2174,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2229,7 +2190,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2244,9 +2205,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2254,7 +2213,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2265,7 +2224,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2274,7 +2233,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2286,7 +2245,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2294,7 +2253,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2390,7 +2349,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2433,7 +2392,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2760,7 +2719,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2776,7 +2735,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2792,7 +2751,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2808,7 +2767,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2824,7 +2783,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2839,9 +2798,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2849,7 +2806,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2860,7 +2817,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2869,7 +2826,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2881,7 +2838,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2889,7 +2846,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2985,7 +2942,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3028,7 +2985,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3355,7 +3312,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3371,7 +3328,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3387,7 +3344,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3403,7 +3360,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3419,7 +3376,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3434,9 +3391,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3444,7 +3399,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3455,7 +3410,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3464,7 +3419,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3476,7 +3431,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3484,7 +3439,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3580,7 +3535,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3623,7 +3578,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3950,7 +3905,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3966,7 +3921,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3982,7 +3937,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3998,7 +3953,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4014,7 +3969,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4029,9 +3984,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>143</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4039,7 +3992,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4050,7 +4003,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4059,7 +4012,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4071,7 +4024,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4079,7 +4032,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4175,7 +4128,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4218,7 +4171,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4545,7 +4498,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4561,7 +4514,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4577,7 +4530,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4593,7 +4546,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4609,7 +4562,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4624,9 +4577,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>152</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4634,7 +4585,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4645,7 +4596,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4654,7 +4605,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4666,7 +4617,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4674,7 +4625,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4770,7 +4721,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4813,7 +4764,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5140,7 +5091,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5156,7 +5107,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5172,7 +5123,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5188,7 +5139,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5204,7 +5155,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5219,9 +5170,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>161</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5229,7 +5178,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5240,7 +5189,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5249,7 +5198,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5261,7 +5210,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5269,7 +5218,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5365,7 +5314,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5408,7 +5357,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5735,7 +5684,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5751,7 +5700,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5767,7 +5716,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5783,7 +5732,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5799,7 +5748,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5814,9 +5763,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5824,7 +5771,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5835,7 +5782,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5844,7 +5791,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5856,7 +5803,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5864,7 +5811,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5960,7 +5907,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6003,7 +5950,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6330,7 +6277,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6346,7 +6293,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6362,7 +6309,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6378,7 +6325,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6394,7 +6341,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6409,9 +6356,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>178</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6419,7 +6364,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6430,7 +6375,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6439,7 +6384,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6451,7 +6396,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6459,7 +6404,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6555,7 +6500,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6598,7 +6543,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6925,7 +6870,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6941,7 +6886,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6957,7 +6902,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6973,7 +6918,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6989,7 +6934,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7004,9 +6949,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>187</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7014,7 +6957,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7025,7 +6968,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7034,7 +6977,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7046,7 +6989,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7054,7 +6997,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7150,7 +7093,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7193,7 +7136,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7520,7 +7463,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7536,7 +7479,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7552,7 +7495,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7568,7 +7511,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7584,7 +7527,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7599,9 +7542,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>195</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7609,7 +7550,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7620,7 +7561,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7629,7 +7570,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7641,7 +7582,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7649,7 +7590,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7745,7 +7686,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7788,7 +7729,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8194,9 +8135,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8204,7 +8143,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8215,7 +8154,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8224,7 +8163,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8236,7 +8175,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8244,7 +8183,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8340,7 +8279,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8383,7 +8322,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8710,7 +8649,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8726,7 +8665,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8742,7 +8681,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8758,7 +8697,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8774,7 +8713,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8789,9 +8728,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>161</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8799,7 +8736,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8810,7 +8747,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8819,7 +8756,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8831,7 +8768,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8839,7 +8776,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8935,7 +8872,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8978,7 +8915,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9305,7 +9242,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9321,7 +9258,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9337,7 +9274,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9353,7 +9290,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9369,7 +9306,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9384,9 +9321,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9394,7 +9329,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9405,7 +9340,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9414,7 +9349,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9426,7 +9361,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9434,7 +9369,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9530,7 +9465,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9573,7 +9508,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9900,7 +9835,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9916,7 +9851,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9932,7 +9867,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9948,7 +9883,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9964,7 +9899,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9979,9 +9914,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9989,7 +9922,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10000,7 +9933,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10009,7 +9942,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10021,7 +9954,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10029,7 +9962,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10125,7 +10058,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10168,7 +10101,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10495,7 +10428,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10511,7 +10444,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10527,7 +10460,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10543,7 +10476,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10559,7 +10492,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10574,9 +10507,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>226</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10584,7 +10515,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10595,7 +10526,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10604,7 +10535,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10616,7 +10547,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10624,7 +10555,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10720,7 +10651,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10763,7 +10694,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11090,7 +11021,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11106,7 +11037,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11122,7 +11053,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11138,7 +11069,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11154,7 +11085,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11169,9 +11100,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11179,7 +11108,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11190,7 +11119,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11199,7 +11128,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11211,7 +11140,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11219,7 +11148,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11315,7 +11244,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11358,7 +11287,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11685,7 +11614,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11701,7 +11630,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11717,7 +11646,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11733,7 +11662,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11749,7 +11678,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11764,9 +11693,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>143</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11774,7 +11701,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11785,7 +11712,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11794,7 +11721,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11806,7 +11733,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11814,7 +11741,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11910,7 +11837,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11953,7 +11880,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12280,7 +12207,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12296,7 +12223,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12312,7 +12239,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12328,7 +12255,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12344,7 +12271,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12359,9 +12286,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12369,7 +12294,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12380,7 +12305,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12389,7 +12314,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12401,7 +12326,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12409,7 +12334,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12505,7 +12430,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12548,7 +12473,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12875,7 +12800,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12891,7 +12816,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12907,7 +12832,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12923,7 +12848,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12939,7 +12864,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12954,9 +12879,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12964,7 +12887,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12975,7 +12898,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12984,7 +12907,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12996,7 +12919,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13004,7 +12927,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13100,7 +13023,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13143,7 +13066,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13470,7 +13393,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13486,7 +13409,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13502,7 +13425,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13518,7 +13441,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13534,7 +13457,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13549,9 +13472,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>143</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13559,7 +13480,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13570,7 +13491,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13579,7 +13500,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13591,7 +13512,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13599,7 +13520,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13695,7 +13616,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13738,7 +13659,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14065,7 +13986,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14081,7 +14002,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14097,7 +14018,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14113,7 +14034,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14129,7 +14050,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14144,9 +14065,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>269</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14154,7 +14073,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14165,7 +14084,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14174,7 +14093,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14186,7 +14105,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14194,7 +14113,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14290,7 +14209,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14333,7 +14252,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14660,7 +14579,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14676,7 +14595,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14692,7 +14611,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14708,7 +14627,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14724,7 +14643,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14739,9 +14658,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14749,7 +14666,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14760,7 +14677,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14769,7 +14686,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14781,7 +14698,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14789,7 +14706,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14885,7 +14802,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14928,7 +14845,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15255,7 +15172,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15271,7 +15188,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15287,7 +15204,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15303,7 +15220,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15319,7 +15236,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15334,9 +15251,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>187</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15344,7 +15259,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15355,7 +15270,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15364,7 +15279,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15376,7 +15291,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15384,7 +15299,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15480,7 +15395,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15523,7 +15438,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15850,7 +15765,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15866,7 +15781,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15882,7 +15797,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15898,7 +15813,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15914,7 +15829,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15929,9 +15844,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15939,7 +15852,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15950,7 +15863,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15959,7 +15872,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15971,7 +15884,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15979,7 +15892,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16075,7 +15988,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16118,7 +16031,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16501,7 +16414,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16517,7 +16430,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16533,7 +16446,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16549,7 +16462,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16565,7 +16478,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16580,9 +16493,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16590,7 +16501,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16601,7 +16512,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16610,7 +16521,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16622,7 +16533,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16630,7 +16541,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16726,7 +16637,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16769,7 +16680,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17096,7 +17007,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17112,7 +17023,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17128,7 +17039,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17144,7 +17055,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17160,7 +17071,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17175,9 +17086,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17185,7 +17094,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17196,7 +17105,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17205,7 +17114,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17217,7 +17126,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17225,7 +17134,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17321,7 +17230,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17364,7 +17273,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17691,7 +17600,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17707,7 +17616,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17723,7 +17632,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17739,7 +17648,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17755,7 +17664,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17770,9 +17679,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17780,7 +17687,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17791,7 +17698,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17800,7 +17707,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17812,7 +17719,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17820,7 +17727,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17916,7 +17823,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17959,7 +17866,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18286,7 +18193,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18302,7 +18209,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18318,7 +18225,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18334,7 +18241,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18350,7 +18257,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18365,9 +18272,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18375,7 +18280,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18386,7 +18291,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18395,7 +18300,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18407,7 +18312,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18511,7 +18416,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18554,7 +18459,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18881,7 +18786,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18897,7 +18802,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18913,7 +18818,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18929,7 +18834,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18945,7 +18850,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18960,9 +18865,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18970,7 +18873,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18981,7 +18884,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18990,7 +18893,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19002,7 +18905,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19010,7 +18913,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19106,7 +19009,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19149,7 +19052,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19476,7 +19379,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19492,7 +19395,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19508,7 +19411,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19524,7 +19427,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19540,7 +19443,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19555,9 +19458,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19565,7 +19466,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19576,7 +19477,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19585,7 +19486,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19597,7 +19498,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19605,7 +19506,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19701,7 +19602,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19744,7 +19645,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
